--- a/BEST_TeamMembers.xlsx
+++ b/BEST_TeamMembers.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21795" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="118">
   <si>
     <t>Members</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,14 +410,6 @@
     <t>https://see.nwpu.edu.cn/info/1031/1091.htm</t>
   </si>
   <si>
-    <t>Wenyong Guo&lt;br /&gt;贾仕宏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shihong Jia&lt;br /&gt;郝占庆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Pictures/Team_JiaShihong.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -441,12 +433,60 @@
   </si>
   <si>
     <t>Pictures/Team_HaoZhanqing.jpg</t>
+  </si>
+  <si>
+    <t>Shihong Jia&lt;br /&gt;贾仕宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhanqing Hao&lt;br /&gt;郝占庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pictures/Team_ZhangQiang.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northwestern Polytechnical University&lt;br /&gt;西北工业大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Institute of Zoology, Guangdong Academy of Sciences &lt;br /&gt;广东省科学院动物研究所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animal Ecology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.giz.gd.cn/yjdw/yjy/t44374.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pictures/Team_ChenYuxin.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhang Qiang&lt;br /&gt;张强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chen Yu Xin&lt;br /&gt;陈宇新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cee.xmu.edu.cn/info/1033/3680.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiamen University&lt;br /&gt;厦门大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -578,7 +618,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -613,7 +653,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -790,7 +830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -798,22 +838,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="31.75" customWidth="1"/>
-    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.625" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="31.73046875" customWidth="1"/>
+    <col min="2" max="2" width="28.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.59765625" customWidth="1"/>
+    <col min="5" max="5" width="18.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -847,7 +887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -864,7 +904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -881,7 +921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -898,7 +938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -915,7 +955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -932,7 +972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -949,7 +989,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -966,7 +1006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -983,7 +1023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1040,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1017,7 +1057,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -1034,7 +1074,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1051,7 +1091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1068,7 +1108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1085,12 +1125,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
         <v>76</v>
@@ -1100,9 +1140,9 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
         <v>75</v>
@@ -1114,7 +1154,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>95</v>
       </c>
@@ -1131,7 +1171,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -1145,9 +1185,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -1162,9 +1202,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
         <v>86</v>
@@ -1179,7 +1219,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>90</v>
       </c>
@@ -1196,15 +1236,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
         <v>107</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>100</v>
-      </c>
-      <c r="C24" t="s">
-        <v>102</v>
       </c>
       <c r="D24" t="s">
         <v>45</v>
@@ -1213,15 +1253,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
         <v>45</v>
@@ -1230,7 +1270,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -1245,6 +1285,40 @@
       </c>
       <c r="E26" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1269,8 +1343,10 @@
     <hyperlink ref="E21" r:id="rId17"/>
     <hyperlink ref="E22" r:id="rId18"/>
     <hyperlink ref="E19" r:id="rId19"/>
+    <hyperlink ref="E27" r:id="rId20"/>
+    <hyperlink ref="E28" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId20"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId22"/>
 </worksheet>
 </file>